--- a/results/pvalue_SIDER_rare_transporter_AUPRperdrug.xlsx
+++ b/results/pvalue_SIDER_rare_transporter_AUPRperdrug.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.746</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.112</t>
+          <t>0.734</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.232</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.341</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>0.347</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>0.364</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-1.408</t>
+          <t>-11.114</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-1.079</t>
+          <t>-8.62</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.024</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>15.904</t>
+          <t>13.837</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11.686</t>
+          <t>10.655</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.86</t>
+          <t>8.849</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.323</t>
+          <t>7.647</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.559</t>
+          <t>13.997</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
